--- a/Dataset.xlsx
+++ b/Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BoW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13EFAEE-ED21-459D-8686-426B900D402D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B574E08-234E-402F-8635-64686F4512C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -692,11 +692,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:QG1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="66.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
